--- a/activities_example.xlsx
+++ b/activities_example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8cc709fcc387b320/Documents/GitHub/1800_202230_DTC04/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yee\Desktop\comp1800\1800_202230_DTC04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5378C2CC-0A14-C246-92D5-E668DF40142D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A3281A-BAC2-41B3-825C-93A02EBE7E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="14940" xr2:uid="{274F3531-3685-F44F-9FC5-4651C4A85AA0}"/>
+    <workbookView xWindow="10450" yWindow="1970" windowWidth="12650" windowHeight="11170" xr2:uid="{274F3531-3685-F44F-9FC5-4651C4A85AA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="56">
   <si>
     <t>ActivityName</t>
   </si>
@@ -110,9 +110,6 @@
     <t>https://cdn.shopify.com/s/files/1/0152/1325/products/2190752c3477c13977e0788299c3ee55_grande.png</t>
   </si>
   <si>
-    <t>Paint and Sip</t>
-  </si>
-  <si>
     <t>"Grab a wine glass, put on a Bob Ross video, and start painting!"</t>
   </si>
   <si>
@@ -125,9 +122,6 @@
     <t>https://cdn.britannica.com/03/193803-050-CBC590FA/Bob-Ross.jpg</t>
   </si>
   <si>
-    <t>Puzzle Night</t>
-  </si>
-  <si>
     <t>Grab a drink, turn on some music, and assemble a puzzle together!</t>
   </si>
   <si>
@@ -150,17 +144,112 @@
   </si>
   <si>
     <t>https://images.pexels.com/photos/745045/pexels-photo-745045.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1260&amp;h=750&amp;dpr=1</t>
+  </si>
+  <si>
+    <t>$$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Friends</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Low</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indoor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Join a paint night gathering in a bar. Every equipment for painting will be ready there. Go grab a drink and enjoy painting!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paint Nite Bar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paint and Sip at Home</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://s3fs.paintnite.com/static/assets/calendar/virtual-events.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Board Game - Puzzle Night</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Board Game - RummyKub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://rummikub.com/wp-content/uploads/2021/12/Playing-Rummikub-with-Kids.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-5H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vancouver Art Gallery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Are you good at numbers? I bet you are! Try RummiKub and beat your friends! </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Let's enjoy some art! Free at Tuesdays evenings! Don't know what to say to friends when appreciating paintings? Try saying " I love the quality of the brush stroke of this artist." Works everytime. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://contentadmin.vanartgallery.bc.ca/wp-content/uploads/2019/06/5_HISTORY-Robson-Square-Vancouver-Art-Gallery-1024PX.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -182,17 +271,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -208,7 +300,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -504,19 +596,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EACCAEF-0AB4-7947-ABA8-8C9C8A572B25}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="74" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="85.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="85.69140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -545,7 +637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -574,7 +666,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -603,18 +695,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
         <v>21</v>
@@ -623,27 +715,27 @@
         <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
         <v>16</v>
       </c>
       <c r="I4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
         <v>21</v>
@@ -652,21 +744,21 @@
         <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5" t="s">
         <v>16</v>
       </c>
       <c r="I5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="70" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -687,21 +779,21 @@
         <v>16</v>
       </c>
       <c r="I6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -716,10 +808,104 @@
         <v>22</v>
       </c>
       <c r="I7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="35" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
         <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="52.5" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="I8" r:id="rId1" xr:uid="{DABFFEBF-0EF9-450D-B9CC-8D2B7845313D}"/>
+    <hyperlink ref="I9" r:id="rId2" xr:uid="{8754B3F6-32A5-4AF2-AF6F-0C031307E292}"/>
+    <hyperlink ref="I10" r:id="rId3" xr:uid="{A3EECE04-DA9A-4E12-B974-C80869E12AFC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/activities_example.xlsx
+++ b/activities_example.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yee\Desktop\comp1800\1800_202230_DTC04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8cc709fcc387b320/Documents/GitHub/1800_202230_DTC04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A3281A-BAC2-41B3-825C-93A02EBE7E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{04A3281A-BAC2-41B3-825C-93A02EBE7E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F77CE61-62B9-4F40-9C2B-B9F651795695}"/>
   <bookViews>
-    <workbookView xWindow="10450" yWindow="1970" windowWidth="12650" windowHeight="11170" xr2:uid="{274F3531-3685-F44F-9FC5-4651C4A85AA0}"/>
+    <workbookView xWindow="3810" yWindow="360" windowWidth="24990" windowHeight="14610" xr2:uid="{274F3531-3685-F44F-9FC5-4651C4A85AA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="163">
   <si>
     <t>ActivityName</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Rock Climbing</t>
   </si>
   <si>
-    <t>Go rockclimbing</t>
-  </si>
-  <si>
     <t>$$</t>
   </si>
   <si>
@@ -101,18 +98,12 @@
     <t>$</t>
   </si>
   <si>
-    <t>Close</t>
-  </si>
-  <si>
     <t>Outdoor</t>
   </si>
   <si>
     <t>https://cdn.shopify.com/s/files/1/0152/1325/products/2190752c3477c13977e0788299c3ee55_grande.png</t>
   </si>
   <si>
-    <t>"Grab a wine glass, put on a Bob Ross video, and start painting!"</t>
-  </si>
-  <si>
     <t>3-5H</t>
   </si>
   <si>
@@ -146,101 +137,411 @@
     <t>https://images.pexels.com/photos/745045/pexels-photo-745045.jpeg?auto=compress&amp;cs=tinysrgb&amp;w=1260&amp;h=750&amp;dpr=1</t>
   </si>
   <si>
-    <t>$$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-2H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Medium</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Friends</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Low</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Indoor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Rockclimbing works both your mind and body. It trains you to think outside the box, and you get a full body workout!</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Paint and Sip at Home</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Puzzle Night</t>
+  </si>
+  <si>
+    <t>Paint Nite Bar</t>
   </si>
   <si>
     <t>Join a paint night gathering in a bar. Every equipment for painting will be ready there. Go grab a drink and enjoy painting!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Paint Nite Bar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Paint and Sip at Home</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://s3fs.paintnite.com/static/assets/calendar/virtual-events.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Board Game - Puzzle Night</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Board Game - RummyKub</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Are you good at numbers? I bet you are! Try RummiKub and beat your friends!</t>
   </si>
   <si>
     <t>https://rummikub.com/wp-content/uploads/2021/12/Playing-Rummikub-with-Kids.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-5H</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Close</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Vancouver Art Gallery</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Are you good at numbers? I bet you are! Try RummiKub and beat your friends! </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Let's enjoy some art! Free at Tuesdays evenings! Don't know what to say to friends when appreciating paintings? Try saying " I love the quality of the brush stroke of this artist." Works everytime. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Let's enjoy some art! Free at Tuesdays evenings! Don't know what to say to friends when appreciating paintings? Try saying " I love the quality of the brush stroke of this artist." Works everytime.</t>
   </si>
   <si>
     <t>https://contentadmin.vanartgallery.bc.ca/wp-content/uploads/2019/06/5_HISTORY-Robson-Square-Vancouver-Art-Gallery-1024PX.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Make yo own pizza</t>
+  </si>
+  <si>
+    <t>What's better than having Italian food any time you want? Making it yourself! Although this activity requires some preparation, the final product is definitely worth it. Get anyone you want, buy ingredients and toss some dough!</t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1513104890138-7c749659a591?ixlib=rb-4.0.3&amp;ixid=MnwxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8&amp;auto=format&amp;fit=crop&amp;w=2070&amp;q=80</t>
+  </si>
+  <si>
+    <t>Board Game Night</t>
+  </si>
+  <si>
+    <t>100% of friendships are ruined by Monopoly. If you value each other, maybe you should avoid this activity! But, if you want to spark some animosity and rivalries, you should play some board games.</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1589804845133-49b5e06cc415?ixlib=rb-4.0.3&amp;ixid=MnwxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8&amp;auto=format&amp;fit=crop&amp;w=1035&amp;q=80</t>
+  </si>
+  <si>
+    <t>Clay</t>
+  </si>
+  <si>
+    <t>It's like playdoh but for adults. Flex your creative muscles and make anything you want.</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1422246358533-95dcd3d48961?ixlib=rb-4.0.3&amp;ixid=MnwxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8&amp;auto=format&amp;fit=crop&amp;w=2070&amp;q=80</t>
+  </si>
+  <si>
+    <t>Spa</t>
+  </si>
+  <si>
+    <t>Get ready for a day of rest and relaxation. Invite some people, and go get pampered.</t>
+  </si>
+  <si>
+    <t>$$$</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1600334129128-685c5582fd35?ixlib=rb-4.0.3&amp;ixid=MnwxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8&amp;auto=format&amp;fit=crop&amp;w=2070&amp;q=80</t>
+  </si>
+  <si>
+    <t>Massage</t>
+  </si>
+  <si>
+    <t>Feeling sore after sitting in front of a computer for 8 hours a day? This activity will be perfect for you! Go get your muscles loosened, and finally feel relaxed.</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1544161515-4ab6ce6db874?ixlib=rb-4.0.3&amp;ixid=MnwxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8&amp;auto=format&amp;fit=crop&amp;w=2070&amp;q=80</t>
+  </si>
+  <si>
+    <t>Karaoke</t>
+  </si>
+  <si>
+    <t>Do karaoke! Everyone's a star at karaoke. FYI, you can sing as long as you want in Solo Karaoke, Burnaby</t>
+  </si>
+  <si>
+    <t>https://ca-times.brightspotcdn.com/dims4/default/dd6a41d/2147483647/strip/true/crop/5304x3648+0+0/resize/1200x825!/quality/80/?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2Fd5%2Fc6%2F6dd95e304b3781329b66fae242c4%2Fla-photos-1staff-773361-fo-the-boulevard-pasadena62-mam.jpg</t>
+  </si>
+  <si>
+    <t>Science World After Dark</t>
+  </si>
+  <si>
+    <t>Remember going to science world as a kid? What could be better than that. Except now, you can go to Science World AND drink!</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1544161513-0179fe746fd5?ixlib=rb-4.0.3&amp;ixid=MnwxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8&amp;auto=format&amp;fit=crop&amp;w=2070&amp;q=80</t>
+  </si>
+  <si>
+    <t>Trivia at a Bar</t>
+  </si>
+  <si>
+    <t>Ready to show the world how much random information is stored in your head? Go form your team and head to a local bar on trivia night.</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1570937943292-a574bd5bc722?ixlib=rb-4.0.3&amp;ixid=MnwxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8&amp;auto=format&amp;fit=crop&amp;w=2070&amp;q=80</t>
+  </si>
+  <si>
+    <t>Park Time! - Lighthouse Park</t>
+  </si>
+  <si>
+    <t>Lighthouse Park is a symbol of West Vancouver, one of Vancouver’s most beautiful areas!</t>
+  </si>
+  <si>
+    <t>https://www.vancouversnorthshore.com/wp3/wp-content/uploads/2021/07/poli_gone-Instagram-2255-ig-1763709481570687442_2051016468.jpg</t>
+  </si>
+  <si>
+    <t>Thrift a New Outfit</t>
+  </si>
+  <si>
+    <t>There's nothing better than getting a new outfit for cheap. Go to a thrift store and see if you can put together an outfit worthy of the runway.</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1520006403909-838d6b92c22e?ixlib=rb-4.0.3&amp;ixid=MnwxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8&amp;auto=format&amp;fit=crop&amp;w=2070&amp;q=80</t>
+  </si>
+  <si>
+    <t>Go-kart</t>
+  </si>
+  <si>
+    <t>Vroom. Diesel, blood, sweat, and tears. There's nothing more thrilling than a high stakes race in go karts. Get your driving gloves on and go get em.</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1505570554449-69ce7d4fa36b?ixlib=rb-4.0.3&amp;ixid=MnwxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8&amp;auto=format&amp;fit=crop&amp;w=2070&amp;q=80</t>
+  </si>
+  <si>
+    <t>Watch Some Anime</t>
+  </si>
+  <si>
+    <t>Indulge in some Japanese culture and binge watch an anime!</t>
+  </si>
+  <si>
+    <t>https://i0.wp.com/techlekh.com/wp-content/uploads/2021/05/watching-animie.jpg?fit=1920%2C1080&amp;ssl=1</t>
+  </si>
+  <si>
+    <t>Go to the Club</t>
+  </si>
+  <si>
+    <t>Get your party clothes on, drink some 'juice' and head out. Get ready for a fun night out!</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1578736641330-3155e606cd40?ixlib=rb-4.0.3&amp;ixid=MnwxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8&amp;auto=format&amp;fit=crop&amp;w=2070&amp;q=80</t>
+  </si>
+  <si>
+    <t>Watch a TV Show</t>
+  </si>
+  <si>
+    <t>Have a new TV show you want to check out? Now is your chance to get started. If you want, you can also binge watch by yourself!</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1522869635100-9f4c5e86aa37?ixlib=rb-4.0.3&amp;ixid=MnwxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8&amp;auto=format&amp;fit=crop&amp;w=2070&amp;q=80</t>
+  </si>
+  <si>
+    <t>Go to the Movie Theatre</t>
+  </si>
+  <si>
+    <t>When was the last time you went to a movie theatre and bought a bag of popcorn? We can't remember either. Welp, looks like its time to go out for a movie. What are you waiting for?</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1608170825938-a8ea0305d46c?ixlib=rb-4.0.3&amp;ixid=MnwxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8&amp;auto=format&amp;fit=crop&amp;w=1625&amp;q=80</t>
+  </si>
+  <si>
+    <t>Go to the Zoo</t>
+  </si>
+  <si>
+    <t>There's nothing cooler than animals. Head to the zoo and take a look at all the animals.</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1503919005314-30d93d07d823?ixlib=rb-4.0.3&amp;ixid=MnwxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8&amp;auto=format&amp;fit=crop&amp;w=2070&amp;q=80</t>
+  </si>
+  <si>
+    <t>Pew Pew Laser Tag</t>
+  </si>
+  <si>
+    <t>Ready to feel like a kid again? Go play some laser tag! Beat your friends by shooting lasers at them.</t>
+  </si>
+  <si>
+    <t>https://uploads-ssl.webflow.com/5ca1479b0620587913fd10e6/5ca97208d636b73c735cda41_NewShoot_Large-30%20Small%20Cropped.jpg</t>
+  </si>
+  <si>
+    <t>Host a BBQ</t>
+  </si>
+  <si>
+    <t>Yum. It's barbeque time. Get some steaks, hotdogs, and burgers. Cook up something that will make Gordan Ramsey jealous.</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1504564321107-4aa3efddb5bd?ixlib=rb-4.0.3&amp;ixid=MnwxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8&amp;auto=format&amp;fit=crop&amp;w=776&amp;q=80</t>
+  </si>
+  <si>
+    <t>Look at Old Pictures</t>
+  </si>
+  <si>
+    <t>Take a walk down memory lane and spend some time with your family. Take a look at all the pictures you've taken through out the years.</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1528569937393-ee892b976859?ixlib=rb-4.0.3&amp;ixid=MnwxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8&amp;auto=format&amp;fit=crop&amp;w=2070&amp;q=80</t>
+  </si>
+  <si>
+    <t>Go Camping</t>
+  </si>
+  <si>
+    <t>Spend some time in nature, and sleep under the stars. Remember to check the weather first, and make sure its nice and sunny. Unless camping in the rain is what you enjoy.</t>
+  </si>
+  <si>
+    <t>6-10H</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1571687949921-1306bfb24b72?ixlib=rb-4.0.3&amp;ixid=MnwxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8&amp;auto=format&amp;fit=crop&amp;w=774&amp;q=80</t>
+  </si>
+  <si>
+    <t>Go to the Beach</t>
+  </si>
+  <si>
+    <t>Splish splash. Go to the beach. Go fly a kite, swim in the ocean, or build a sand castle. The possiblities are endless.</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1544536871-6e891baa163f?ixlib=rb-4.0.3&amp;ixid=MnwxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8&amp;auto=format&amp;fit=crop&amp;w=2787&amp;q=80</t>
+  </si>
+  <si>
+    <t>Go to a Waterpark</t>
+  </si>
+  <si>
+    <t>Splish splash. Hurtle down some waterslides at breakneck speeds. Have fun sliding!</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1642717841683-c0323214617c?ixlib=rb-4.0.3&amp;ixid=MnwxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8&amp;auto=format&amp;fit=crop&amp;w=2070&amp;q=80</t>
+  </si>
+  <si>
+    <t>Park Time! - Waterfront Park</t>
+  </si>
+  <si>
+    <t>Waterfront Park boasts beautiful wide-angle views of Vancouver and the Burrard Inlet and you’ll find it just a 12-minute Seabus ride away from Downtown Vancouver.</t>
+  </si>
+  <si>
+    <t>https://waterfrontparks.ca/wp-content/uploads/2020/12/Belvedere-2-1280x720-1.jpg</t>
+  </si>
+  <si>
+    <t>Have a Family Night Out</t>
+  </si>
+  <si>
+    <t>Dress up and go out. It doesn't matter if you're planning to go to McDonald's or a Michelin star restaurant. The important thing is you spend time with family and have some good food.</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1581954548122-4dff8989c0f7?ixlib=rb-4.0.3&amp;ixid=MnwxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8&amp;auto=format&amp;fit=crop&amp;w=1065&amp;q=80</t>
+  </si>
+  <si>
+    <t>Spring Cleanup - Garage Sale</t>
+  </si>
+  <si>
+    <t>Clean up, clean up, everybody do your share. There's nothing better than cleaning your house AND making money while doing it.</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1542793836-8227da569070?ixlib=rb-4.0.3&amp;ixid=MnwxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8&amp;auto=format&amp;fit=crop&amp;w=1035&amp;q=80</t>
+  </si>
+  <si>
+    <t>Mini Golf</t>
+  </si>
+  <si>
+    <t>Not sure if you can complete a full course? Don't worry, mini golf is there to save the day. Go through a fun course filled with windmills, tunnels and other extravaganzas! This activity is perfect for friends or family.</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1575721087345-4cd6f2a157ca?ixlib=rb-4.0.3&amp;ixid=MnwxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8&amp;auto=format&amp;fit=crop&amp;w=774&amp;q=80</t>
+  </si>
+  <si>
+    <t>Driving Range</t>
+  </si>
+  <si>
+    <t>Get rid of your stress and go smack some golf balls. There's a reason the driving range is so popular. This activity is perfect for anyone, even beginners. Balls can be purchased by the bucket at the range, and they often rent out clubs too.</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1571158096385-a56767c1f57c?ixlib=rb-4.0.3&amp;ixid=MnwxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8&amp;auto=format&amp;fit=crop&amp;w=2070&amp;q=80</t>
+  </si>
+  <si>
+    <t>Do Some Home Repairs</t>
+  </si>
+  <si>
+    <t>Do you have a leaky roof that needs repair, or a room with cracking paint? Watch some youtube vidoes, plan a repair and attempt it with your family. Just a warning though, maybe you should leave the big repairs to the professionals...</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1581783898377-1c85bf937427?ixlib=rb-4.0.3&amp;ixid=MnwxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8&amp;auto=format&amp;fit=crop&amp;w=1015&amp;q=80</t>
+  </si>
+  <si>
+    <t>Strike! Bowling Time</t>
+  </si>
+  <si>
+    <t>Whether you're a beginner or you can bowl a perfect 300, bowling is a fun time for anyone! Grab some friends or family and go roll some balls. Tip: some bowling alleys even have late night specials.</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1538511059256-46e76f13f071?ixlib=rb-4.0.3&amp;ixid=MnwxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8&amp;auto=format&amp;fit=crop&amp;w=2070&amp;q=80</t>
+  </si>
+  <si>
+    <t>Go to a Mueseum</t>
+  </si>
+  <si>
+    <t>Explore art, history, or even barrels. Pick a topic that interests you and find a museum for it!</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1580135952947-6af0163e72cc?ixlib=rb-4.0.3&amp;ixid=MnwxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8&amp;auto=format&amp;fit=crop&amp;w=1055&amp;q=80</t>
+  </si>
+  <si>
+    <t>Call Out of Town Families</t>
+  </si>
+  <si>
+    <t>Do you have any family members that you feel like you haven't talked to in a while? Take some time during the evening or on the weekend a video call them! We're sure they will appreciate it.</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1578022761797-b8636ac1773c?ixlib=rb-4.0.3&amp;ixid=MnwxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8&amp;auto=format&amp;fit=crop&amp;w=774&amp;q=80</t>
+  </si>
+  <si>
+    <t>Fly a Kite</t>
+  </si>
+  <si>
+    <t>Feel like a kid again. If its sunny and windy, fly a kite as high as you can. Just don't be like Benjamin Franklin and fly kite during a thunderstorm.</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1596554817336-19fbecb23705?ixlib=rb-4.0.3&amp;ixid=MnwxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8&amp;auto=format&amp;fit=crop&amp;w=776&amp;q=80</t>
+  </si>
+  <si>
+    <t>Go Fishing</t>
+  </si>
+  <si>
+    <t>Maybe today is the day you land that record breaking largemouth. No time better than today to go fishing. Always remember, a bad day of fishing is better than a good day of work</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1552340745-89c5073640ad?ixlib=rb-4.0.3&amp;ixid=MnwxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8&amp;auto=format&amp;fit=crop&amp;w=774&amp;q=80</t>
+  </si>
+  <si>
+    <t>Car Wash</t>
+  </si>
+  <si>
+    <t>Look at that dirty car in the driveway. Caked in dust with smiley faces drawn all over it. If the weather is nice, today may be the day your car gets the spa treatment it deserves.</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1594611373436-2bfd61d30c1f?ixlib=rb-4.0.3&amp;ixid=MnwxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8&amp;auto=format&amp;fit=crop&amp;w=2070&amp;q=80</t>
+  </si>
+  <si>
+    <t>Watch the Sunrise</t>
+  </si>
+  <si>
+    <t>Nature is beautiful. Wake up early and watch the sunrise.</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1475113548554-5a36f1f523d6?ixlib=rb-4.0.3&amp;ixid=MnwxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8&amp;auto=format&amp;fit=crop&amp;w=774&amp;q=80</t>
+  </si>
+  <si>
+    <t>Water Balloon Fight</t>
+  </si>
+  <si>
+    <t>It's officially a war. Go to the dollarstore, buy some water balloons and fill them up. You can do a water fight however you want. Just make sure everyone gets wet.</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1530982534634-7f61b1f68825?ixlib=rb-4.0.3&amp;ixid=MnwxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHx8&amp;auto=format&amp;fit=crop&amp;w=772&amp;q=80</t>
+  </si>
+  <si>
+    <t>Park Time! - Capilano Regional Park</t>
+  </si>
+  <si>
+    <t>Go for a hike! The Capilano Salmon Hatchery and Cleveland Dam are a popular free attractions in North Vancouver. It’s a short walk from the Cleveland Dam to the Hatchery or you can drive along Capilano Road to get between them.</t>
+  </si>
+  <si>
+    <t>https://www.insidevancouver.ca/wp-content/uploads/2021/05/21035_201804_KazutoshiYoshimura_North-ShoreMountainsLions1-664x498.jpg</t>
+  </si>
+  <si>
+    <t>Grab a wine glass, put on a Bob Ross video, and start painting!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -249,20 +550,50 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0B142D"/>
+      <name val="Lato"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -270,21 +601,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -300,7 +660,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -596,19 +956,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EACCAEF-0AB4-7947-ABA8-8C9C8A572B25}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="74" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="12.69140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="85.69140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.25" customWidth="1"/>
+    <col min="2" max="2" width="85.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="16.5" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -637,275 +997,1391 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" ht="32.25" thickBot="1">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="32.25" thickBot="1">
+      <c r="A4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="63.75" thickBot="1">
+      <c r="A6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="32.25" thickBot="1">
+      <c r="A8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="32.25" thickBot="1">
+      <c r="A9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="48" thickBot="1">
+      <c r="A10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="27" thickBot="1">
+      <c r="A11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="27" thickBot="1">
+      <c r="A12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="27" thickBot="1">
+      <c r="A15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="30" thickBot="1">
+      <c r="A16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="27" thickBot="1">
+      <c r="A17" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="27" thickBot="1">
+      <c r="A18" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="27" thickBot="1">
+      <c r="A19" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="27" thickBot="1">
+      <c r="A20" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="27" thickBot="1">
+      <c r="A21" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A22" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A23" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="H23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="27" thickBot="1">
+      <c r="A24" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D24" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="27" thickBot="1">
+      <c r="A25" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A26" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A27" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="27" thickBot="1">
+      <c r="A28" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
+      <c r="I28" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="27" thickBot="1">
+      <c r="A29" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="27" thickBot="1">
+      <c r="A30" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="H30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="27" thickBot="1">
+      <c r="A31" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A32" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="H32" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="36.75" thickBot="1">
+      <c r="A33" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I3" t="s">
+      <c r="E33" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="27" thickBot="1">
+      <c r="A34" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="27" thickBot="1">
+      <c r="A35" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="27" thickBot="1">
+      <c r="A36" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="39.75" thickBot="1">
+      <c r="A37" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="39.75" thickBot="1">
+      <c r="A38" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="27" thickBot="1">
+      <c r="A39" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A40" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G40" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="H40" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="27" thickBot="1">
+      <c r="A41" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="27" thickBot="1">
+      <c r="A42" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="I42" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="27" thickBot="1">
+      <c r="A43" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="27" thickBot="1">
+      <c r="A44" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G44" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="H44" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="I44" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="16.5" thickBot="1">
+      <c r="A45" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="27" thickBot="1">
+      <c r="A46" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G46" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="70" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="H46" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="39.75" thickBot="1">
+      <c r="A47" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G47" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="H47" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="35" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="52.5" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>55</v>
+      <c r="I47" s="3" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I8" r:id="rId1" xr:uid="{DABFFEBF-0EF9-450D-B9CC-8D2B7845313D}"/>
-    <hyperlink ref="I9" r:id="rId2" xr:uid="{8754B3F6-32A5-4AF2-AF6F-0C031307E292}"/>
-    <hyperlink ref="I10" r:id="rId3" xr:uid="{A3EECE04-DA9A-4E12-B974-C80869E12AFC}"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{11298121-DC62-4BED-AAD8-8AB03DF625E3}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{734EB422-A2C7-4848-97DD-3F385E75E2D3}"/>
+    <hyperlink ref="I4" r:id="rId3" xr:uid="{C1A3457E-71AC-4B04-A2C0-2FBD41B5756F}"/>
+    <hyperlink ref="I5" r:id="rId4" xr:uid="{1267CEC8-B0CA-4B24-9BDB-F9960C134892}"/>
+    <hyperlink ref="I6" r:id="rId5" xr:uid="{0A97FF55-4D5B-43E9-BC52-4532150589E2}"/>
+    <hyperlink ref="I7" r:id="rId6" xr:uid="{817B358B-3ECC-41BC-873D-44F617C0786A}"/>
+    <hyperlink ref="I8" r:id="rId7" xr:uid="{A7859B22-6A97-4821-BED0-EA4D5E66D4F3}"/>
+    <hyperlink ref="I9" r:id="rId8" xr:uid="{4BFD8368-9065-4C86-8FD9-A3270AD93E74}"/>
+    <hyperlink ref="I10" r:id="rId9" xr:uid="{E7D3B69E-3B6F-4002-9243-6D341BE44F72}"/>
+    <hyperlink ref="I11" r:id="rId10" xr:uid="{F8FF744B-74CB-4A3C-9A8A-E2158C089DC3}"/>
+    <hyperlink ref="I12" r:id="rId11" xr:uid="{F17ED0DC-8EFB-45F1-8C84-15F4525B9DA1}"/>
+    <hyperlink ref="I13" r:id="rId12" xr:uid="{685A1C0F-F81B-47B4-8BC8-77EE52C190BA}"/>
+    <hyperlink ref="I14" r:id="rId13" xr:uid="{B9CA3788-1A23-47BB-8292-2304F6355A11}"/>
+    <hyperlink ref="I15" r:id="rId14" xr:uid="{D70DA782-AF34-46D4-A9B9-828BBBBB1A20}"/>
+    <hyperlink ref="I16" r:id="rId15" display="https://ca-times.brightspotcdn.com/dims4/default/dd6a41d/2147483647/strip/true/crop/5304x3648+0+0/resize/1200x825!/quality/80/?url=https%3A%2F%2Fcalifornia-times-brightspot.s3.amazonaws.com%2Fd5%2Fc6%2F6dd95e304b3781329b66fae242c4%2Fla-photos-1staff-773361-fo-the-boulevard-pasadena62-mam.jpg" xr:uid="{30F9B90F-A78C-499E-BE5A-93930300D43D}"/>
+    <hyperlink ref="I17" r:id="rId16" xr:uid="{B1F6C2FD-704D-4D54-B981-6E1468624536}"/>
+    <hyperlink ref="I18" r:id="rId17" xr:uid="{F6D1BD9D-482D-484F-AD4F-AD9FCDDDAC0A}"/>
+    <hyperlink ref="I19" r:id="rId18" xr:uid="{745AD90D-5AA8-470A-B3ED-D62543618574}"/>
+    <hyperlink ref="I20" r:id="rId19" xr:uid="{D94CAC1A-D136-4337-B448-565F8D924B23}"/>
+    <hyperlink ref="I21" r:id="rId20" xr:uid="{A5B43FB1-F756-4BA4-B45A-FEE69118A4C4}"/>
+    <hyperlink ref="I22" r:id="rId21" xr:uid="{2FBD91AC-E6C5-4114-AC98-A4A7C729C6F5}"/>
+    <hyperlink ref="I23" r:id="rId22" xr:uid="{D4B4AC1D-2171-4726-A6B7-E13BF8EE54F5}"/>
+    <hyperlink ref="I24" r:id="rId23" xr:uid="{BDFF2004-78BB-4CFE-815C-531A60B19B45}"/>
+    <hyperlink ref="I25" r:id="rId24" xr:uid="{ECFF98B6-2A73-4263-8523-E66E84FB79E2}"/>
+    <hyperlink ref="I26" r:id="rId25" xr:uid="{05B9530F-EAC5-4B8D-AE3E-FFC96A16CD20}"/>
+    <hyperlink ref="I27" r:id="rId26" display="https://uploads-ssl.webflow.com/5ca1479b0620587913fd10e6/5ca97208d636b73c735cda41_NewShoot_Large-30 Small Cropped.jpg" xr:uid="{EB0F94CB-BB65-46A7-A6F7-C71BBF9661BD}"/>
+    <hyperlink ref="I28" r:id="rId27" xr:uid="{7FFD731E-0A1C-4793-BAE1-9B5591CD48D8}"/>
+    <hyperlink ref="I29" r:id="rId28" xr:uid="{CB34C59C-CF94-40A8-BADD-6A9C179A854A}"/>
+    <hyperlink ref="I30" r:id="rId29" xr:uid="{BCCFFBC1-5BC3-4988-A1EB-EFFA000B8308}"/>
+    <hyperlink ref="I31" r:id="rId30" xr:uid="{18CD0749-0136-459C-8686-86866068995C}"/>
+    <hyperlink ref="I32" r:id="rId31" xr:uid="{4D3858E2-478A-4747-84BD-4DA588C951C4}"/>
+    <hyperlink ref="I33" r:id="rId32" xr:uid="{1DB9CFBC-0B63-43ED-BDD5-6BB101146352}"/>
+    <hyperlink ref="I34" r:id="rId33" xr:uid="{C05EE35F-175D-4A41-AAA4-D1F2B7BAA6C8}"/>
+    <hyperlink ref="I35" r:id="rId34" xr:uid="{6B5382CC-3358-4199-9CCB-375907050F97}"/>
+    <hyperlink ref="I36" r:id="rId35" xr:uid="{D1049B2E-C3A8-4721-B158-CF656EDB2688}"/>
+    <hyperlink ref="I37" r:id="rId36" xr:uid="{D232B43A-48A6-439A-A0CE-9E05B36135F7}"/>
+    <hyperlink ref="I38" r:id="rId37" xr:uid="{C74D0EE3-3708-4F10-93D5-317F0CCC23AF}"/>
+    <hyperlink ref="I39" r:id="rId38" xr:uid="{FF3A6FAD-696E-42C5-9985-9E7880EE0690}"/>
+    <hyperlink ref="I40" r:id="rId39" xr:uid="{7348B861-032B-439A-B737-39EB18D98BFF}"/>
+    <hyperlink ref="I41" r:id="rId40" xr:uid="{5A2BAD5B-8A11-459D-9044-628AD0F6A9C4}"/>
+    <hyperlink ref="I42" r:id="rId41" xr:uid="{A92D1B45-4A99-4C10-B9EB-CF771C7F5ED8}"/>
+    <hyperlink ref="I43" r:id="rId42" xr:uid="{224D77B6-E724-4AF6-B85F-A2199CEF14AD}"/>
+    <hyperlink ref="I44" r:id="rId43" xr:uid="{CF0B87E6-FD9D-4538-A3B4-136B5C1B20E7}"/>
+    <hyperlink ref="I45" r:id="rId44" xr:uid="{63C8F417-6D0B-4B18-B0CC-0A557B5A071A}"/>
+    <hyperlink ref="I46" r:id="rId45" xr:uid="{739A8A3D-BBFA-4221-A54F-92DA6CFF3BFB}"/>
+    <hyperlink ref="I47" r:id="rId46" xr:uid="{7EE560F1-6138-49DC-8D6E-4B0AB3C17687}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId47"/>
 </worksheet>
 </file>